--- a/data/trans_orig/P78DS2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD90B910-0C8A-4284-A5E7-2C94DB80A41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEBA137-8D18-47C2-A27A-A8446ECB811F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A7FA299-4DC7-4221-8981-A2140ADFE87A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAA863F7-27C3-4E03-ABCB-AA97AF420284}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="207">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 2 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -101,565 +101,547 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>3,66%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>0,02%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>97,4%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>96,48%</t>
   </si>
   <si>
     <t>97,63%</t>
@@ -668,10 +650,10 @@
     <t>96,95%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1086,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176E99C1-96E7-4373-A9B9-5A56128B912A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5F5FD-34AA-4494-BC2A-862A7D1B4259}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1791,10 +1773,10 @@
         <v>47</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>19</v>
@@ -1803,13 +1785,13 @@
         <v>16920</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1845,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1860,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1896,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1911,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1908,13 @@
         <v>1187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1947,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1956,13 +1938,13 @@
         <v>1187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,10 +1959,10 @@
         <v>6857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>61</v>
@@ -2034,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2049,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2064,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2100,7 +2082,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2115,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2151,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2166,7 +2148,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2169,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2202,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2217,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2471,7 @@
         <v>1191</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
@@ -2543,10 +2525,10 @@
         <v>93</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -2555,13 +2537,13 @@
         <v>10631</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M30" s="7">
         <v>28</v>
@@ -2570,7 +2552,7 @@
         <v>24139</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>99</v>
@@ -2606,13 +2588,13 @@
         <v>976</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2621,13 +2603,13 @@
         <v>976</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2624,13 @@
         <v>2552</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2678,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2675,13 @@
         <v>991</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2723,7 +2705,7 @@
         <v>2464</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>109</v>
@@ -2765,7 +2747,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2780,7 +2762,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2777,13 @@
         <v>982638</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H35" s="7">
         <v>1413</v>
@@ -2810,13 +2792,13 @@
         <v>985678</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M35" s="7">
         <v>2317</v>
@@ -2825,13 +2807,13 @@
         <v>1968316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2869,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -2899,10 +2881,10 @@
         <v>4714</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>123</v>
@@ -2914,7 +2896,7 @@
         <v>8653</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>124</v>
@@ -2932,7 +2914,7 @@
         <v>126</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>127</v>
@@ -2956,7 +2938,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2965,13 +2947,13 @@
         <v>1305</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -2986,7 +2968,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3022,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3037,7 +3019,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3034,13 @@
         <v>1126</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3073,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3082,13 +3064,13 @@
         <v>1126</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3103,7 @@
         <v>136</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>137</v>
@@ -3160,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3169,13 +3151,13 @@
         <v>3205</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M42" s="7">
         <v>4</v>
@@ -3187,10 +3169,10 @@
         <v>87</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3187,13 @@
         <v>6464</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3220,13 +3202,13 @@
         <v>840</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M43" s="7">
         <v>4</v>
@@ -3235,13 +3217,13 @@
         <v>7304</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3238,13 @@
         <v>1567</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3313,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -3328,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -3343,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3450,7 @@
         <v>161</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="H48" s="7">
         <v>22</v>
@@ -3477,13 +3459,13 @@
         <v>18091</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="M48" s="7">
         <v>44</v>
@@ -3492,13 +3474,13 @@
         <v>40677</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3570,7 +3552,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -3579,13 +3561,13 @@
         <v>3124</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -3594,13 +3576,13 @@
         <v>3124</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -3666,13 +3648,13 @@
         <v>7584</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -3681,13 +3663,13 @@
         <v>12484</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="M52" s="7">
         <v>26</v>
@@ -3696,10 +3678,10 @@
         <v>20068</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>123</v>
@@ -3723,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3774,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3825,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -3876,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -3885,13 +3867,13 @@
         <v>729</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -3900,13 +3882,13 @@
         <v>729</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3903,13 @@
         <v>892648</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H57" s="7">
         <v>1439</v>
@@ -3936,13 +3918,13 @@
         <v>1045053</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M57" s="7">
         <v>2368</v>
@@ -3951,13 +3933,13 @@
         <v>1937701</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4007,13 @@
         <v>52503</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H59" s="7">
         <v>66</v>
@@ -4043,10 +4025,10 @@
         <v>25</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M59" s="7">
         <v>117</v>
@@ -4055,13 +4037,13 @@
         <v>103741</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4073,13 @@
         <v>1305</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -4106,13 +4088,13 @@
         <v>1305</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4157,13 +4139,13 @@
         <v>3124</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4160,13 @@
         <v>3503</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4199,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M62" s="7">
         <v>3</v>
@@ -4208,13 +4190,13 @@
         <v>3503</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4211,13 @@
         <v>38636</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="H63" s="7">
         <v>54</v>
@@ -4244,13 +4226,13 @@
         <v>41134</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="M63" s="7">
         <v>90</v>
@@ -4259,13 +4241,13 @@
         <v>79769</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4277,13 @@
         <v>4181</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="M64" s="7">
         <v>5</v>
@@ -4313,10 +4295,10 @@
         <v>91</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4313,13 @@
         <v>9016</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -4346,13 +4328,13 @@
         <v>840</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M65" s="7">
         <v>5</v>
@@ -4364,10 +4346,10 @@
         <v>107</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4370,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H66" s="7">
         <v>3</v>
@@ -4400,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M66" s="7">
         <v>5</v>
@@ -4412,13 +4394,13 @@
         <v>4761</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4430,13 @@
         <v>1366</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="M67" s="7">
         <v>2</v>
@@ -4463,13 +4445,13 @@
         <v>1366</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4466,13 @@
         <v>3168607</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H68" s="7">
         <v>4993</v>
@@ -4499,13 +4481,13 @@
         <v>3550210</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M68" s="7">
         <v>8145</v>
@@ -4514,13 +4496,13 @@
         <v>6718817</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4558,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEBA137-8D18-47C2-A27A-A8446ECB811F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74217457-14DA-4286-B6CD-B6283BAE313F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAA863F7-27C3-4E03-ABCB-AA97AF420284}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{24E6784F-43ED-4C7C-92EF-42836B61B5A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -167,7 +167,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,08%</t>
@@ -269,7 +269,7 @@
     <t>97,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,39%</t>
@@ -401,7 +401,7 @@
     <t>97,49%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -1068,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5F5FD-34AA-4494-BC2A-862A7D1B4259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AB8A4F-A80F-4636-B206-74950F9F466B}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
